--- a/Data_file/import_internal_tranfer_ตัดจ่าย.xlsx
+++ b/Data_file/import_internal_tranfer_ตัดจ่าย.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>contect</t>
   </si>
@@ -53,15 +53,6 @@
     <t>demand</t>
   </si>
   <si>
-    <t>รหัสสินค้า</t>
-  </si>
-  <si>
-    <t>ชื่อสินค้า</t>
-  </si>
-  <si>
-    <t>จำนวน</t>
-  </si>
-  <si>
     <t>Partners/Mogen</t>
   </si>
   <si>
@@ -74,16 +65,55 @@
     <t>My Company: Internal Transfers</t>
   </si>
   <si>
-    <t>เอกสารการเบิก อ้างอิง (ถ้ามี)</t>
-  </si>
-  <si>
     <t>MOGEN_OB</t>
   </si>
   <si>
-    <t>วันที่เบิก</t>
-  </si>
-  <si>
-    <t>เลขที่เอกสาร รันเองได้เลยครับ เอาใว้ recheck ข้อมูล</t>
+    <t>TRAN0001</t>
+  </si>
+  <si>
+    <t>TRAN0002</t>
+  </si>
+  <si>
+    <t>TRAN0003</t>
+  </si>
+  <si>
+    <t>TRAN0004</t>
+  </si>
+  <si>
+    <t>FG10/Stock</t>
+  </si>
+  <si>
+    <t>PJ01/Stock</t>
+  </si>
+  <si>
+    <t>MAE01L101</t>
+  </si>
+  <si>
+    <t>MAE001101</t>
+  </si>
+  <si>
+    <t>MAE013L110</t>
+  </si>
+  <si>
+    <t>MAE013C110</t>
+  </si>
+  <si>
+    <t>MAE002101</t>
+  </si>
+  <si>
+    <t>MAE023C110</t>
+  </si>
+  <si>
+    <t>MAE003101</t>
+  </si>
+  <si>
+    <t>MAE004101</t>
+  </si>
+  <si>
+    <t>MAE05L101</t>
+  </si>
+  <si>
+    <t>MAE05R101</t>
   </si>
 </sst>
 </file>
@@ -134,10 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -418,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -440,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -472,35 +503,352 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45793</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45793</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45793</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45705</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45705</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45705</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45705</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45706</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45706</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45707</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45707</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45707</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
